--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>36.36934344025023</v>
+        <v>213.2505674533679</v>
       </c>
       <c r="R2">
-        <v>327.324090962252</v>
+        <v>1919.255107080311</v>
       </c>
       <c r="S2">
-        <v>0.01107330826389577</v>
+        <v>0.04017440981627448</v>
       </c>
       <c r="T2">
-        <v>0.01107330826389576</v>
+        <v>0.04017440981627447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>32.48549287034444</v>
+        <v>81.75033863153055</v>
       </c>
       <c r="R3">
-        <v>292.3694358331</v>
+        <v>735.7530476837751</v>
       </c>
       <c r="S3">
-        <v>0.009890799300484627</v>
+        <v>0.015400998206115</v>
       </c>
       <c r="T3">
-        <v>0.009890799300484625</v>
+        <v>0.015400998206115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>18.54173365650045</v>
+        <v>46.66061282444957</v>
       </c>
       <c r="R4">
-        <v>166.875602908504</v>
+        <v>419.9455154200461</v>
       </c>
       <c r="S4">
-        <v>0.00564536813436817</v>
+        <v>0.008790422479404963</v>
       </c>
       <c r="T4">
-        <v>0.005645368134368169</v>
+        <v>0.008790422479404961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>312.9107245933438</v>
+        <v>729.0798284561509</v>
       </c>
       <c r="R5">
-        <v>2816.196521340094</v>
+        <v>6561.718456105358</v>
       </c>
       <c r="S5">
-        <v>0.09527136276720331</v>
+        <v>0.1373518118472604</v>
       </c>
       <c r="T5">
-        <v>0.0952713627672033</v>
+        <v>0.1373518118472604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>279.4952603291055</v>
@@ -818,10 +818,10 @@
         <v>2515.45734296195</v>
       </c>
       <c r="S6">
-        <v>0.08509741675723494</v>
+        <v>0.05265428957239792</v>
       </c>
       <c r="T6">
-        <v>0.08509741675723494</v>
+        <v>0.05265428957239791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>159.5274141586876</v>
@@ -880,10 +880,10 @@
         <v>1435.746727428188</v>
       </c>
       <c r="S7">
-        <v>0.04857102346165321</v>
+        <v>0.03005347085298199</v>
       </c>
       <c r="T7">
-        <v>0.04857102346165321</v>
+        <v>0.03005347085298199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>1017.501594709226</v>
+        <v>2370.771692432567</v>
       </c>
       <c r="R8">
-        <v>9157.514352383037</v>
+        <v>21336.94523189311</v>
       </c>
       <c r="S8">
-        <v>0.3097968715253573</v>
+        <v>0.4466311845732179</v>
       </c>
       <c r="T8">
-        <v>0.3097968715253573</v>
+        <v>0.4466311845732178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
-        <v>908.8434839301916</v>
+        <v>908.8434839301915</v>
       </c>
       <c r="R9">
-        <v>8179.591355371726</v>
+        <v>8179.591355371724</v>
       </c>
       <c r="S9">
-        <v>0.2767139329233591</v>
+        <v>0.1712176010516193</v>
       </c>
       <c r="T9">
-        <v>0.276713932923359</v>
+        <v>0.1712176010516193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
-        <v>518.7402845244527</v>
+        <v>518.7402845244526</v>
       </c>
       <c r="R10">
-        <v>4668.662560720075</v>
+        <v>4668.662560720074</v>
       </c>
       <c r="S10">
-        <v>0.1579399168664438</v>
+        <v>0.09772581160072809</v>
       </c>
       <c r="T10">
-        <v>0.1579399168664438</v>
+        <v>0.09772581160072807</v>
       </c>
     </row>
   </sheetData>
